--- a/module_2/module2_note.xlsx
+++ b/module_2/module2_note.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\C0922G1-VanTienSy\module_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F1775-CCA6-4E4F-BB06-36949B0529F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEE184-E7CB-49D3-84E6-397A7B5ABDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{015C71DA-2FE5-409B-B0EC-17EC932FAE8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{015C71DA-2FE5-409B-B0EC-17EC932FAE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="ss10_DSA" sheetId="1" r:id="rId1"/>
     <sheet name="ss11_DSA_stack_queue" sheetId="2" r:id="rId2"/>
+    <sheet name="Java Collection Framework" sheetId="3" r:id="rId3"/>
+    <sheet name="Thuật toán" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <r>
       <t>&gt; Interface : Đề cập đến các dữu liệu trừu t</t>
@@ -1926,6 +1928,900 @@
       </rPr>
       <t>ợng với các kiểu dữ liệu khác nhau .</t>
     </r>
+  </si>
+  <si>
+    <t>1. Map Interface ?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Map đc sử dụng để l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u trữ và truy xuất dữ liệu theo cặp khóa(key , value ). Mỗi cặp key và vale đc gọi là entry.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Map chỉ chứa các giá trị value duy nhất, không chứa các key trùng lặp.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Các lớp cài đặt (inplements)Map interface là HashMap, LinkedHashMap, Treemap:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt; Hashmap không đảm bảo thứ tự các entry đc thêm vào</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;LinkedHashMap đảm bảo thứ tự các entry đc thêm vào</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;TreeMap duy trình thứ tự các phần tử dựa vào bộ so sánh comparator </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Sức chứa (compacity) mặc định khi khởi tạo map là 24 = 16. Kích th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc này sẽ tự động tăng gấp đôi mỗi khi thêm phần tử v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợt quá kích th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc của nó.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. Binary tree ?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>là một trong những cấu trúc dữ liệu c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản bên cạnh queue, stack, linked-list, array. Cây tìm kiếm nhị phân là 1 dạng đồ thị nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng các nút (node) của cây phải có những tính chất sau: </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mỗi node chỉ có thể có tối đa 2 node con</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Giá trị của node con bên trái phải nhỏ h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n node cha của nó</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Giá trị của node con bên phải lớn h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n node cha của nó</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sau đây là một vài khái niệm trong cây tìm kiếm nhị phân:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Root node (nút gốc) : node đầu tiên của cây.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Leaf node (nút lá): node không có con trái và con phải.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Internal node : những node không phải nút gốc cũng không phải nút lá.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Level (tầng): nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hình minh họa trên chúng ta có 2 cây với 3 tầng.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Binary search tree ?  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Binary Search Tree là cấu trúc dữ liệu phân cấp quan trọng nhất khác trong Java. Nó t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng tự nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cây nhị phân nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng có một số thuộc tính bổ sung nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Giá trị của mỗi nhánh N của cây con bên phải lớn h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n mọi giá trị trong cây con bên trái.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Giá trị của mỗi nhánh N của cây con bên trái nhỏ h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n mọi giá trị trong cây con bên phải</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Các cây con bên trái và bên phải là Binary Search Tree.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Các cách duyệt : </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Pre-order traversal : đi qua node cha tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc sau đến node con trái rồi mới đến node con phải</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> In-order traversal : duyệt lần l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợt node con trái sau đến node cha rồi đến node con phải.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Post-order traversal : Ta duyệt lần l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợt node con trái, node con phải rồi đến node cha.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Độ phức tạp thuật toán : </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Mỗi bài toán có giới hạn kích th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc đầu vào. Độ phức tạp của thuật toán là 1 khái niệm, định nghĩa</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng đối thể hiện số phép toán của giải thuật so với kích th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc phần đầu vào.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Đệ quy là gì ?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Đệ quy sảy ra khi ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời viết các ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ng thức tự gọi lại nó. </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Có 2 yếu tố để tiến hành đệ quy :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;Có điều kiện dừng : có xác định quy luật và tìm giá trị cụ thể thỏa mãn điều kiện.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt; Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng thức đệ quy, sẽ gọi lại chính nó cho đến khi trả về điều kiện dừng ở b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc 1 .</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuật toán tìm kiếm </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>tuyến tính lý t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng :</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Là phuocwngw pháp tìm kiếm phần tử cho tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc trong 1 kiểu so sánh bằng cách duyệt lần l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợt</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>từng phần tử của dánh dánh đó khi nào tìm đc giá trị mong muốn hay đã duyệt qua hết danh sách.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bắt đầu từ bản gi đè đầu tiên của mảng, duyệt từ đầu mảng, duyệt từ đầu mảng tới cuối mảng với x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nếu ptu đang duyệt mảng bằng x thì trả về ví trí</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nếu không tìm thấy bất cứ phần tử nào khi duyệt thì trả về bằng -1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>nhị phân lý t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Hay còn gọi là tìm kiếm một nữa là thuật toán tìm kiếm đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ợc sử dụng rất nhiều trong thực tế </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>cho phép tìm kiếm vị trí một phần tử trong mảng đã đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc sắp xếp</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2016,14 +2912,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2351,10 +3247,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2389,31 +3285,31 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -2469,10 +3365,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2487,28 +3383,28 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
@@ -2589,10 +3485,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>4</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2617,10 +3513,10 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>5</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2635,24 +3531,24 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
@@ -2679,7 +3575,7 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I50" t="s">
@@ -2687,7 +3583,7 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2710,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947BBFDE-245F-413F-944F-BE3158B45D7D}">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
@@ -2723,18 +3619,18 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>94</v>
       </c>
@@ -2763,7 +3659,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D11" t="s">
@@ -2866,6 +3762,269 @@
     <row r="31" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFDA157-6023-4E70-9F3A-1385AA342666}">
+  <dimension ref="B2:D35"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8240FAA8-EABC-42AC-84A7-DEC39DB35939}">
+  <dimension ref="C3:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/module_2/module2_note.xlsx
+++ b/module_2/module2_note.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\C0922G1-VanTienSy\module_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEE184-E7CB-49D3-84E6-397A7B5ABDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C68A9-8825-4062-9E59-4349718F1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{015C71DA-2FE5-409B-B0EC-17EC932FAE8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{015C71DA-2FE5-409B-B0EC-17EC932FAE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="ss10_DSA" sheetId="1" r:id="rId1"/>
     <sheet name="ss11_DSA_stack_queue" sheetId="2" r:id="rId2"/>
     <sheet name="Java Collection Framework" sheetId="3" r:id="rId3"/>
-    <sheet name="Thuật toán" sheetId="5" r:id="rId4"/>
+    <sheet name="Thuật toán tìm kiếm" sheetId="5" r:id="rId4"/>
+    <sheet name="Thuật toán sắp xếp" sheetId="6" r:id="rId5"/>
+    <sheet name="exception" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
   <si>
     <r>
       <t>&gt; Interface : Đề cập đến các dữu liệu trừu t</t>
@@ -2821,6 +2823,1824 @@
       </rPr>
       <t>ợc sắp xếp</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thuật toán sắp xếp nổi bọt :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Ý t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng :</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt; Xuất phát từ cuối dãy, đỗi chổ các cặp phần tử cận kề để đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">a các </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>phần tử nhỏ h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n trong các cặp phần tử đó về vị trí đầu dãu hiện hành</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>sau đó sẽ không xét đến nó ở b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc tiếp theo.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;Ở lần xử lý thứ I có vị trí đầu dãy là I </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt; Lặp lại xử lý trên cho đến khi không còn cặp phần tử nào để xét</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thuật toán sắp xếp chọn :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Ý t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng triển khai :</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt; Chọn phâng tử nhỏ nhất trong n phần tử của dãy ban đầu, bắt đầu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> từ vị trí đúng là đầu dãy hện hành…</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Xem dãy hiện hành chỉ còn n -1 phần tử của dãy ban đầu , bắt đầu </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">từ vị trí thứ 2; lặp lái quá trình trên cho dãy hiện hành…đến khi dãy </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hiện hành chỉ còn 1 phân tử.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thuật toán chèn :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Ý t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng thực hiện :</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;  Tìm cách chèn phần tử a[i] vào ví trị của đoạn đã đc sắp xếp </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>để có dãy mới a[0],a[1],…,a[i-1] trở nên có thứ tự</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;  Vị trí này chính là pos thỏa : a[pos-1]&lt;=a[i]&lt;a[pos] (1 &lt;= pos &lt;= I )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng thức sort của Collections sử dụng thuật toán sắp xếp nổi bọt .</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ngoại lệ (exception) là thuật ngữ chỉ tình trạng sai hoặc bất thường xảy ra khi một chương trình đang chạy</t>
+  </si>
+  <si>
+    <t>Phân loại exception :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;  Checked :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Loại đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc kiểm tra bao gồm ngoại lệ thuộc tất cả các lớp còn lại, nghĩa là các lớp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> không thuộc loại RuntimeException và các lớp con của nó. Một ví dụ là ngoại lệ FileNotFoundException</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Loại được kiểm tra được trình biên dịch kiểm tra xem đã được xử lý trong mã hay chưa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;  UnChecked :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Loại không đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc kiểm tra bao gồm các đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng thuộc lớp RuntimeException và các lớp con của nó, chẳng hạn NullPointerException,</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ArrayIndexOutOfBoundException , InputMismatchException hay ArithmeticException …</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Với những ngoại lệ loại không đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc kiểm tra, trình biên dịch không quan tâm ai tuyên bố ném, ai ném, và có ai bắt hay không.</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tất cả trách nhiệm thuộc về người lập trình.</t>
+  </si>
+  <si>
+    <r>
+      <t>Java cung cấp 5 t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̀ khóa s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng đê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lý ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đó là:</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sử dụng để xử lý ngoại lệ, các khối code để xử lý ngoại lệ sẽ được đặt trong đây</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>Sử dụng để thực thi đoạn mã cần thiết của chương trình. Khối này sẽ luôn được thực thi</t>
+  </si>
+  <si>
+    <t>Sử dụng để ném ra ngoại lệ</t>
+  </si>
+  <si>
+    <t>Sử dụng để khai báo ngoại lệ</t>
+  </si>
+  <si>
+    <t>try</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng đê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>́a đoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh có thê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gây ra ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nó pha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c theo sau b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i khối catch hoă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c finally</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>catch</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>throw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>throws</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Khối lệnh try - cacth : </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;Khối lệnh try - finaly :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;Khối lệnh try -catch- finaly :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt;từ khóa thow :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&gt; từ khóa : thows :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>System.out.println("Nhâ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p tuô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i cu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n:");
+age = sc.nextInt();
+//Tuô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i không h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi nhâ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p số âm hoă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>́n h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n 200
+if(age &lt; 0 || age &gt; 200)
+    throw new ArithmeticException("Tuô</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i không h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>");</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>public void readFile() throws IOException{ // Khai báo ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">̣
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>try{
+    //Khối lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh có thê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ném ra ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">̣
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}catch(&lt;Exception_class_name_1&gt; e){
+    //Code x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lý ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+}catch(&lt;Exception_class_name_2&gt; e){
+    //Code x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lý ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+}finally{
+    //Khối lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh trong đây luôn đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c thi}</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>try{
+    //Khối lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh có thê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ném ra ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">̣
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}finally{
+    //Khối lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh trong đây luôn đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ượ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c thi }</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> try{
+    //Khối lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh có thê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ném ra ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">̣
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}catch(&lt;Exception_class_name&gt; e){
+    //Code x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lý ngoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i lê</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>. Các cách để xử lý exception :</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2828,7 +4648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2882,6 +4702,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF526069"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8F0E00"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2905,7 +4756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2918,8 +4769,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2936,6 +4805,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528467</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DBCBD4-A705-6B3E-88F5-1090051941A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="2695576"/>
+          <a:ext cx="4538492" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F29680-A4E0-4CA4-2C36-5265960F8E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="7048500"/>
+          <a:ext cx="4638675" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD378189-BF4C-1337-AD07-297007C10EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552826" y="11029950"/>
+          <a:ext cx="4648200" cy="2085976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3241,12 +5247,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -3254,37 +5260,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -3292,26 +5298,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:14">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -3319,7 +5325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -3327,12 +5333,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14">
       <c r="K12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -3340,7 +5346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -3348,7 +5354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -3356,7 +5362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -3364,7 +5370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -3372,41 +5378,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:19">
+      <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -3417,7 +5423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -3425,7 +5431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -3436,7 +5442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -3447,7 +5453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -3458,12 +5464,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19">
       <c r="B31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15">
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -3474,17 +5480,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15">
       <c r="D35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15">
       <c r="K36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -3492,27 +5498,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15">
       <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15">
       <c r="B39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15">
       <c r="B40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15">
       <c r="B41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -3520,37 +5526,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15">
       <c r="B44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15">
       <c r="B45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="4" t="s">
+    <row r="46" spans="1:15">
+      <c r="B46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="B47" t="s">
         <v>56</v>
       </c>
@@ -3558,7 +5564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15">
       <c r="B48" t="s">
         <v>58</v>
       </c>
@@ -3566,7 +5572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:9">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -3574,7 +5580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:9">
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
@@ -3582,7 +5588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9">
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
@@ -3610,12 +5616,12 @@
       <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3623,39 +5629,39 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4">
       <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4">
       <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4">
       <c r="C5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4">
       <c r="D6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4">
       <c r="D7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4">
       <c r="D8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>2</v>
       </c>
@@ -3666,47 +5672,47 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4">
       <c r="D12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4">
       <c r="D13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4">
       <c r="D14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4">
       <c r="D15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4">
       <c r="D16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4">
       <c r="D17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:4">
       <c r="D18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:4">
       <c r="D19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>80</v>
       </c>
@@ -3714,52 +5720,52 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:4">
       <c r="D22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:4">
       <c r="D23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:4">
       <c r="D24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:4">
       <c r="D25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:4">
       <c r="D26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:4">
       <c r="D27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:4">
       <c r="D28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:4">
       <c r="D29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:4">
       <c r="D30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:4">
       <c r="D31" t="s">
         <v>91</v>
       </c>
@@ -3779,12 +5785,12 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>95</v>
       </c>
@@ -3792,37 +5798,37 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4">
       <c r="D3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4">
       <c r="C5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4">
       <c r="C6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4">
       <c r="C7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4">
       <c r="C8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4">
       <c r="D10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>103</v>
       </c>
@@ -3830,47 +5836,47 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4">
       <c r="D14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4">
       <c r="D15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4">
       <c r="D16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4">
       <c r="C18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4">
       <c r="D19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4">
       <c r="D20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4">
       <c r="D21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4">
       <c r="D22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>113</v>
       </c>
@@ -3878,37 +5884,37 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4">
       <c r="C29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4">
       <c r="C30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4">
       <c r="C32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:4">
       <c r="D33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:4">
       <c r="D34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:4">
       <c r="D35" t="s">
         <v>121</v>
       </c>
@@ -3923,16 +5929,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8240FAA8-EABC-42AC-84A7-DEC39DB35939}">
   <dimension ref="C3:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:6">
       <c r="C3">
         <v>1</v>
       </c>
@@ -3943,12 +5949,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:6">
       <c r="F4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:6">
       <c r="C6">
         <v>2</v>
       </c>
@@ -3959,22 +5965,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:6">
       <c r="F7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6">
       <c r="F8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:6">
       <c r="F9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:6">
       <c r="C11">
         <v>3</v>
       </c>
@@ -3985,7 +5991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:6">
       <c r="D12" t="s">
         <v>131</v>
       </c>
@@ -3993,22 +5999,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:6">
       <c r="F13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:6">
       <c r="F14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:6">
       <c r="F15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:6">
       <c r="C16">
         <v>4</v>
       </c>
@@ -4019,7 +6025,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:6">
       <c r="D17" t="s">
         <v>137</v>
       </c>
@@ -4032,4 +6038,319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33365CF8-AC42-492C-BA86-74EE708CBA6F}">
+  <dimension ref="D5:G58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="5" spans="4:6">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="F7" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="F9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="E22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="F26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="G44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="G45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="G46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B021A5-C401-4F74-89E5-EC4330AD8CE1}">
+  <dimension ref="D2:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="56.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="E4" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="E5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="E7" s="10"/>
+      <c r="F7" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="E9" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="E10" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="E11" s="10"/>
+      <c r="F11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="E12" s="10"/>
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="F13" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="10">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" ht="80.25" customHeight="1">
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="87" customHeight="1">
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="164.25" customHeight="1">
+      <c r="E23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" ht="93.75">
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" ht="14.25" customHeight="1">
+      <c r="E25" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/module_2/module2_note.xlsx
+++ b/module_2/module2_note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\C0922G1-VanTienSy\module_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C68A9-8825-4062-9E59-4349718F1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6CEBE-6DC2-4A25-88A5-9DA84F04CB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{015C71DA-2FE5-409B-B0EC-17EC932FAE8D}"/>
+    <workbookView xWindow="13770" yWindow="1320" windowWidth="14985" windowHeight="14205" activeTab="5" xr2:uid="{015C71DA-2FE5-409B-B0EC-17EC932FAE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="ss10_DSA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Java Collection Framework" sheetId="3" r:id="rId3"/>
     <sheet name="Thuật toán tìm kiếm" sheetId="5" r:id="rId4"/>
     <sheet name="Thuật toán sắp xếp" sheetId="6" r:id="rId5"/>
-    <sheet name="exception" sheetId="7" r:id="rId6"/>
+    <sheet name="IO Text file" sheetId="8" r:id="rId6"/>
+    <sheet name="exception" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="201">
   <si>
     <r>
       <t>&gt; Interface : Đề cập đến các dữu liệu trừu t</t>
@@ -4641,6 +4642,168 @@
   </si>
   <si>
     <t>. Các cách để xử lý exception :</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Stream là gì ?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Một stream là một dãy dữ liệu. Trong java, một stream bao gồm các byte. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Nó đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc gọi là stream (dòng chảy) vì nó giống nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> một dòng n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc chảy liên tục</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân loại : </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Character Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – hỗ trợ nhập xuất dữ liệu cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Unicode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Byte Stream</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> – hỗ trợ nhập xuất dữ liệu cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (nhập xuất theo nhị phân).</t>
+    </r>
+  </si>
+  <si>
+    <t>Các class để triển khai :</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4648,7 +4811,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4733,6 +4896,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4756,7 +4932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4772,9 +4948,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4789,6 +4962,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5247,12 +5426,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -5260,37 +5439,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -5298,26 +5477,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -5325,7 +5504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -5333,12 +5512,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -5346,7 +5525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -5354,7 +5533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -5362,7 +5541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -5370,7 +5549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -5378,41 +5557,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -5423,7 +5602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -5431,7 +5610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -5442,7 +5621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -5453,7 +5632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -5464,12 +5643,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>41</v>
       </c>
@@ -5480,17 +5659,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -5498,27 +5677,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -5526,37 +5705,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5" t="s">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>56</v>
       </c>
@@ -5564,7 +5743,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>58</v>
       </c>
@@ -5572,7 +5751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -5580,7 +5759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
@@ -5588,7 +5767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
@@ -5616,12 +5795,12 @@
       <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -5629,39 +5808,39 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>2</v>
       </c>
@@ -5672,47 +5851,47 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>80</v>
       </c>
@@ -5720,52 +5899,52 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>91</v>
       </c>
@@ -5785,12 +5964,12 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>95</v>
       </c>
@@ -5798,37 +5977,37 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>103</v>
       </c>
@@ -5836,47 +6015,47 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>113</v>
       </c>
@@ -5884,37 +6063,37 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>121</v>
       </c>
@@ -5933,12 +6112,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C3">
         <v>1</v>
       </c>
@@ -5949,12 +6128,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C6">
         <v>2</v>
       </c>
@@ -5965,22 +6144,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C11">
         <v>3</v>
       </c>
@@ -5991,7 +6170,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>131</v>
       </c>
@@ -5999,22 +6178,22 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C16">
         <v>4</v>
       </c>
@@ -6025,7 +6204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>137</v>
       </c>
@@ -6044,13 +6223,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33365CF8-AC42-492C-BA86-74EE708CBA6F}">
   <dimension ref="D5:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>1</v>
       </c>
@@ -6058,37 +6237,37 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D21">
         <v>2</v>
       </c>
@@ -6096,37 +6275,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="5:7">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E42">
         <v>3</v>
       </c>
@@ -6134,27 +6313,27 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="5:7">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.4">
       <c r="F43" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="5:7">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="5:7">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:7">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.4">
       <c r="G46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="5:6">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E58">
         <v>4</v>
       </c>
@@ -6171,6 +6350,62 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CEEDDB-6A52-4ED3-B3A2-62664811B095}">
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B021A5-C401-4F74-89E5-EC4330AD8CE1}">
   <dimension ref="D2:F25"/>
   <sheetViews>
@@ -6178,21 +6413,21 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="29.375" customWidth="1"/>
     <col min="6" max="6" width="56.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6">
+    <row r="2" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D3">
         <v>2</v>
       </c>
@@ -6200,66 +6435,66 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
-      <c r="E4" s="10" t="s">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E4" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
-      <c r="E5" s="10" t="s">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E5" s="9" t="s">
         <v>166</v>
       </c>
       <c r="F5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
-      <c r="E6" s="10"/>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E6" s="9"/>
       <c r="F6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
-      <c r="E7" s="10"/>
-      <c r="F7" s="6" t="s">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E7" s="9"/>
+      <c r="F7" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="E9" s="10" t="s">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
-      <c r="E10" s="10" t="s">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="9" t="s">
         <v>166</v>
       </c>
       <c r="F10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
-      <c r="E11" s="10"/>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="9"/>
       <c r="F11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
-      <c r="E12" s="10"/>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E12" s="9"/>
       <c r="F12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
-      <c r="F13" s="6" t="s">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F13" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="10">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D15" s="9">
         <v>3</v>
       </c>
       <c r="E15" t="s">
@@ -6269,7 +6504,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
         <v>178</v>
       </c>
@@ -6277,80 +6512,81 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E17" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="8" t="s">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E18" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E20" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="5:6" ht="80.25" customHeight="1">
+    <row r="21" spans="5:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="5:6" ht="87" customHeight="1">
+    <row r="22" spans="5:6" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E22" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="5:6" ht="164.25" customHeight="1">
+    <row r="23" spans="5:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="5:6" ht="93.75">
+    <row r="24" spans="5:6" ht="93.75" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E25" s="9" t="s">
+    <row r="25" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>